--- a/DOM_Banner/output/dept_banner/Ryan Wong_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Ryan Wong_2023.xlsx
@@ -543,8 +543,8 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5078292599", "https://openalex.org/A5000022108", "https://openalex.org/A5066569524", "https://openalex.org/A5036125254", "https://openalex.org/A5089852010", "https://openalex.org/A5045863918", "https://openalex.org/A5051251491", "https://openalex.org/A5029812912", "https://openalex.org/A5001904015", "https://openalex.org/A5046102924", "https://openalex.org/A5001872981", "https://openalex.org/A5078075711", "https://openalex.org/A5075589378", "https://openalex.org/A5026668144", 
-"https://openalex.org/A5056662207", "https://openalex.org/A5061114123", "https://openalex.org/A5077271114", "https://openalex.org/A5036578375", "https://openalex.org/A5033913363", "https://openalex.org/A5018859388", "https://openalex.org/A5065535610", "https://openalex.org/A5085643102", "https://openalex.org/A5050971129"), au_display_name = c("Grace E. McAuley", "Gloria Yiu", "Peter Chang", "Gregory A. Newby", "Beatriz Campo-Fernández", "Sorel Fitz‐Gibbon", "Ye Wu", "Sung-Hae L. Kang", "Amber Garibay", 
-"Jeffrey Butler", "Valentina Christian", "Randall Wong", "Kelcee A. Everette", "Anthony Azzun", "Hila Gelfer", "Christopher S. Seet", "Aru Narendran", "Luis Murguia‐Favela", "Zulema Romero", "Nicola Wright", "David R. Liu", "Gay M. Crooks", "Donald B. Kohn"), au_orcid = c(NA, NA, NA, NA, NA, NA, "https://orcid.org/0000-0002-9928-1177", NA, NA, NA, NA, NA, "https://orcid.org/0000-0003-4421-971X", NA, NA, "https://orcid.org/0000-0002-4821-1400", "https://orcid.org/0000-0002-4898-477X", "https://orcid.org/0000-0001-6893-3366", 
+"https://openalex.org/A5056662207", "https://openalex.org/A5061114123", "https://openalex.org/A5077271114", "https://openalex.org/A5036578375", "https://openalex.org/A5033913363", "https://openalex.org/A5018859388", "https://openalex.org/A5065535610", "https://openalex.org/A5085643102", "https://openalex.org/A5050971129"), au_display_name = c("Grace E. McAuley", "Gloria Yiu", "Peter Chang", "Gregory A. Newby", "Beatriz Campo‐Fernandez", "Sorel Fitz‐Gibbon", "Ye Wu", "Sung-Hae L. Kang", "Amber Garibay", 
+"Jeffrey Butler", "Valentina Christian", "Randall Wong", "Kelcee A. Everette", "Anthony Azzun", "Hila Gelfer", "Christopher S. Seet", "Aru Narendran", "Luis Murguía-Favela", "Zulema Romero", "Nicola Wright", "David R. Liu", "Gay M. Crooks", "Donald B. Kohn"), au_orcid = c(NA, NA, NA, NA, NA, NA, "https://orcid.org/0000-0002-9928-1177", NA, NA, NA, NA, NA, "https://orcid.org/0000-0003-4421-971X", NA, NA, "https://orcid.org/0000-0002-4821-1400", "https://orcid.org/0000-0002-4898-477X", "https://orcid.org/0000-0001-6893-3366", 
 "https://orcid.org/0000-0001-8305-8184", "https://orcid.org/0000-0003-3144-4969", "https://orcid.org/0000-0002-9943-7557", "https://orcid.org/0000-0002-2488-8468", NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Microbiology, Immunology &amp; Molecular Genetics, University of California, Los Angeles, Los Angeles, CA 90095, USA", 
 "Department of Medicine, Division of Rheumatology, University of California, Los Angeles, Los Angeles, CA 90095, USA", "Department of Pathology &amp; Laboratory Medicine, University of California, Los Angeles, Los Angeles, CA 90095, USA", "Department of Chemistry and Chemical Biology, Harvard University, Cambridge, MA 02138, USA; Howard Hughes Medical Institute, Harvard University, Cambridge, MA 02138, USA; Merkin Institute of Transformative Technologies in Healthcare, Broad Institute of Harvard and MIT, Cambridge, MA 02142, USA", 
 "Department of Microbiology, Immunology &amp; Molecular Genetics, University of California, Los Angeles, Los Angeles, CA 90095, USA", "Department of Molecular, Cell &amp; Developmental Biology, University of California, Los Angeles, Los Angeles, CA 90095, USA", "Department of Microbiology, Immunology &amp; Molecular Genetics, University of California, Los Angeles, Los Angeles, CA 90095, USA", "Department of Pathology &amp; Laboratory Medicine, University of California, Los Angeles, Los Angeles, CA 90095, USA", "Department of Pathology &amp; Laboratory Medicine, University of California, Los Angeles, Los Angeles, CA 90095, USA", 

--- a/DOM_Banner/output/dept_banner/Ryan Wong_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Ryan Wong_2023.xlsx
@@ -543,7 +543,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5078292599", "https://openalex.org/A5000022108", "https://openalex.org/A5066569524", "https://openalex.org/A5036125254", "https://openalex.org/A5089852010", "https://openalex.org/A5045863918", "https://openalex.org/A5051251491", "https://openalex.org/A5029812912", "https://openalex.org/A5001904015", "https://openalex.org/A5046102924", "https://openalex.org/A5001872981", "https://openalex.org/A5078075711", "https://openalex.org/A5075589378", "https://openalex.org/A5026668144", 
-"https://openalex.org/A5056662207", "https://openalex.org/A5061114123", "https://openalex.org/A5077271114", "https://openalex.org/A5036578375", "https://openalex.org/A5033913363", "https://openalex.org/A5018859388", "https://openalex.org/A5065535610", "https://openalex.org/A5085643102", "https://openalex.org/A5050971129"), au_display_name = c("Grace E. McAuley", "Gloria Yiu", "Peter Chang", "Gregory A. Newby", "Beatriz Campo‐Fernandez", "Sorel Fitz‐Gibbon", "Ye Wu", "Sung-Hae L. Kang", "Amber Garibay", 
+"https://openalex.org/A5056662207", "https://openalex.org/A5061114123", "https://openalex.org/A5077271114", "https://openalex.org/A5036578375", "https://openalex.org/A5033913363", "https://openalex.org/A5018859388", "https://openalex.org/A5065535610", "https://openalex.org/A5085643102", "https://openalex.org/A5050971129"), au_display_name = c("Grace E. McAuley", "Gloria Yiu", "Peter Chang", "Gregory A. Newby", "Beatriz Campo-Fernández", "Sorel Fitz‐Gibbon", "Ye Wu", "Sung-Hae L. Kang", "Amber Garibay", 
 "Jeffrey Butler", "Valentina Christian", "Randall Wong", "Kelcee A. Everette", "Anthony Azzun", "Hila Gelfer", "Christopher S. Seet", "Aru Narendran", "Luis Murguía-Favela", "Zulema Romero", "Nicola Wright", "David R. Liu", "Gay M. Crooks", "Donald B. Kohn"), au_orcid = c(NA, NA, NA, NA, NA, NA, "https://orcid.org/0000-0002-9928-1177", NA, NA, NA, NA, NA, "https://orcid.org/0000-0003-4421-971X", NA, NA, "https://orcid.org/0000-0002-4821-1400", "https://orcid.org/0000-0002-4898-477X", "https://orcid.org/0000-0001-6893-3366", 
 "https://orcid.org/0000-0001-8305-8184", "https://orcid.org/0000-0003-3144-4969", "https://orcid.org/0000-0002-9943-7557", "https://orcid.org/0000-0002-2488-8468", NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Microbiology, Immunology &amp; Molecular Genetics, University of California, Los Angeles, Los Angeles, CA 90095, USA", 
 "Department of Medicine, Division of Rheumatology, University of California, Los Angeles, Los Angeles, CA 90095, USA", "Department of Pathology &amp; Laboratory Medicine, University of California, Los Angeles, Los Angeles, CA 90095, USA", "Department of Chemistry and Chemical Biology, Harvard University, Cambridge, MA 02138, USA; Howard Hughes Medical Institute, Harvard University, Cambridge, MA 02138, USA; Merkin Institute of Transformative Technologies in Healthcare, Broad Institute of Harvard and MIT, Cambridge, MA 02142, USA", 
@@ -1242,7 +1242,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4206669628", "https://openalex.org/W3036314732", "https://openalex.org/W4205317059", "https://openalex.org/W3009669391", "https://openalex.org/W4382894326", "https://openalex.org/W3198183218", "https://openalex.org/W3176864053", "https://openalex.org/W3084498529", "https://openalex.org/W3020699490", "https://openalex.org/W4292098121")</t>
+          <t>c("https://openalex.org/W4206669628", "https://openalex.org/W3009669391", "https://openalex.org/W4205317059", "https://openalex.org/W3084498529", "https://openalex.org/W3036314732", "https://openalex.org/W4200329650", "https://openalex.org/W3127156785", "https://openalex.org/W3005417802", "https://openalex.org/W3171943759", "https://openalex.org/W4226296940")</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Ryan Wong_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Ryan Wong_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Microbiology, Immunology &amp; Molecular Genetics, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Medicine, Division of Rheumatology, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Pathology &amp; Laboratory Medicine, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Chemistry and Chemical Biology, Harvard University, Cambridge, MA 02138, USA; Howard Hughes Medical Institute, Harvard University, Cambridge, MA 02138, USA; Merkin Institute of Transformative Technologies in Healthcare, Broad Institute of Harvard and MIT, Cambridge, MA 02142, USA; Department of Microbiology, Immunology &amp; Molecular Genetics, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Molecular, Cell &amp; Developmental Biology, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Microbiology, Immunology &amp; Molecular Genetics, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Pathology &amp; Laboratory Medicine, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Pathology &amp; Laboratory Medicine, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Pathology &amp; Laboratory Medicine, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Pathology &amp; Laboratory Medicine, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Molecular &amp; Medical Pharmacology, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Chemistry and Chemical Biology, Harvard University, Cambridge, MA 02138, USA; Howard Hughes Medical Institute, Harvard University, Cambridge, MA 02138, USA; Merkin Institute of Transformative Technologies in Healthcare, Broad Institute of Harvard and MIT, Cambridge, MA 02142, USA; Department of Microbiology, Immunology &amp; Molecular Genetics, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Microbiology, Immunology &amp; Molecular Genetics, University of California, Los Angeles, Los Angeles, CA 90095, USA; Broad Stem Cell Research Center, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Medicine, Division of Hematology-Oncology, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Pediatrics, University of Calgary, Calgary, AB T2N 1N4, Canada; Department of Pediatrics, University of Calgary, Calgary, AB T2N 1N4, Canada; Department of Microbiology, Immunology &amp; Molecular Genetics, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Pediatrics, University of Calgary, Calgary, AB T2N 1N4, Canada; Department of Chemistry and Chemical Biology, Harvard University, Cambridge, MA 02138, USA; Howard Hughes Medical Institute, Harvard University, Cambridge, MA 02138, USA; Merkin Institute of Transformative Technologies in Healthcare, Broad Institute of Harvard and MIT, Cambridge, MA 02142, USA; Broad Stem Cell Research Center, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Pathology &amp; Laboratory Medicine, University of California, Los Angeles, Los Angeles, CA 90095, USA; Department of Microbiology, Immunology &amp; Molecular Genetics, University of California, Los Angeles, Los Angeles, CA 90095, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4327940554</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Human T cell generation is restored in CD3δ severe combined immunodeficiency through adenine base editing</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Cell</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Cell Press</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cell.2023.02.027</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36944331</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cell.2023.02.027</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>1Department of Molecular and Medical Pharmacology, David Geffen School of Medicine, University of California, Los Angeles, Los Angeles, CA; 2ImmunoVec, Los Angeles, CA; 3Department of Microbiology, Immunology and Molecular Genetics, David Geffen School of Medicine, University of California, Los Angeles, Los Angeles, CA; 3Department of Microbiology, Immunology and Molecular Genetics, David Geffen School of Medicine, University of California, Los Angeles, Los Angeles, CA; 3Department of Microbiology, Immunology and Molecular Genetics, David Geffen School of Medicine, University of California, Los Angeles, Los Angeles, CA; 2ImmunoVec, Los Angeles, CA; 3Department of Microbiology, Immunology and Molecular Genetics, David Geffen School of Medicine, University of California, Los Angeles, Los Angeles, CA; 2ImmunoVec, Los Angeles, CA; 3Department of Microbiology, Immunology and Molecular Genetics, David Geffen School of Medicine, University of California, Los Angeles, Los Angeles, CA; 2ImmunoVec, Los Angeles, CA; 2ImmunoVec, Los Angeles, CA; 1Department of Molecular and Medical Pharmacology, David Geffen School of Medicine, University of California, Los Angeles, Los Angeles, CA; 4Department of Ophthalmology, Duke University Eye Center, Durham, NC; 5National Institute of Allergy and Infectious Diseases, National Institutes of Health, Bethesda, MD; 3Department of Microbiology, Immunology and Molecular Genetics, David Geffen School of Medicine, University of California, Los Angeles, Los Angeles, CA; 1Department of Molecular and Medical Pharmacology, David Geffen School of Medicine, University of California, Los Angeles, Los Angeles, CA; 7Eli and Edythe Broad Center of Regenerative Medicine and Stem Cell Research, University of California, Los Angeles, Los Angeles, CA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308255675</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Lentiviral gene therapy for X-linked chronic granulomatous disease recapitulates endogenous&lt;i&gt;CYBB&lt;/i&gt;regulation and expression</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood.2022016074</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36332160</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood.2022016074</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, College of Medicine, University of Arizona, Tucson; Division of Nephrology, Banner University Medical Center, Tucson, Arizona; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Infectious Diseases, College of Medicine, University of Arizona, Tucson</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323671354</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>The Impact of Nirmatrelvir-Ritonavir in Reducing Hospitalizations Among High-Risk Patients With SARS-CoV-2 During the Omicron Predominant Era</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.02.022</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36898600</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.02.022</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4376471759</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Effectiveness of Casirivimab-Imdevimab and Sotrovimab Monoclonal Antibody Treatment among High-Risk Patients with Sars-Cov-2 Infection: A Real-World Experience</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Archives of clinical and biomedical research</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.26502/acbr.50170347</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.26502/acbr.50170347</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
